--- a/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\SpLA_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33310EF-0E05-4D9D-B16C-5E4048D32D6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E0C17-C6FA-4D80-8E0C-D19FEF0B41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="959" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
+    <workbookView xWindow="10095" yWindow="60" windowWidth="16905" windowHeight="14295" tabRatio="959" activeTab="3" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
     <sheet name="S2LAF_Sedan_HambaLG_r" sheetId="4" r:id="rId2"/>
+    <sheet name="S2LAF_Sedan_Hamba_f" sheetId="5" r:id="rId3"/>
+    <sheet name="S2LAF_Sedan_Hamba_r" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="51">
   <si>
     <t>Units</t>
   </si>
@@ -179,14 +186,21 @@
   </si>
   <si>
     <t>Useful for rear axle</t>
+  </si>
+  <si>
+    <t>SplitLowerArmShockFront_Sedan_Hamba_f</t>
+  </si>
+  <si>
+    <t>SplitLowerArmShockFront_Sedan_Hamba_r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -270,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -297,7 +311,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -312,17 +325,61 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -667,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,30 +733,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B97DDF-383F-4C04-9BF0-3BEEE5507D8A}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -719,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -733,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -746,11 +803,11 @@
       <c r="H3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -763,11 +820,11 @@
       <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -787,20 +844,20 @@
       <c r="H5" s="7">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="22">
         <f>-F8</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="22">
         <f>G8</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="22">
         <f>H8</f>
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -818,20 +875,20 @@
       <c r="H6" s="7">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="22">
         <f>-F9</f>
         <v>-0.03</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="22">
         <f>G9</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="22">
         <f>H9</f>
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -847,7 +904,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -867,20 +924,20 @@
       <c r="H8" s="7">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="22">
         <f>-F5</f>
         <v>-0.29913000000000006</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="22">
         <f>G5</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="22">
         <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -899,20 +956,20 @@
       <c r="H9" s="7">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
         <f>-F6</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="22">
         <f t="shared" ref="M9" si="1">G6</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="22">
         <f t="shared" si="0"/>
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -928,9 +985,9 @@
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -951,20 +1008,20 @@
       <c r="H11" s="7">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="22">
         <f>-F12</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="22">
         <f>G12</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="22">
         <f>H12</f>
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -983,20 +1040,20 @@
       <c r="H12" s="7">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <f>-F11</f>
         <v>-0.16634428571428575</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="22">
         <f>G11</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="22">
         <f>H11</f>
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1015,20 +1072,20 @@
       <c r="H13" s="7">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <f>-F13</f>
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="22">
         <f t="shared" ref="M13:N13" si="2">G13</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="22">
         <f t="shared" si="2"/>
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1043,10 +1100,10 @@
       <c r="H14" s="7">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1067,20 +1124,20 @@
       <c r="H15" s="7">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="22">
         <f>-F15</f>
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="22">
         <f t="shared" ref="M15:N16" si="3">G15</f>
         <v>0.89449999999999996</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="22">
         <f t="shared" si="3"/>
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1099,20 +1156,20 @@
       <c r="H16" s="7">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <f>-F16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <f t="shared" si="3"/>
         <v>0.99209999999999998</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="22">
         <f t="shared" si="3"/>
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1127,10 +1184,10 @@
       <c r="H17" s="7">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1145,10 +1202,10 @@
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1164,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -1184,7 +1241,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
@@ -1204,7 +1261,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -1222,11 +1279,11 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
@@ -1234,20 +1291,20 @@
         <v>12</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0.52560000000000007</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0.37421428571428578</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="F23" s="23">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1257,20 +1314,20 @@
         <v>12</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="7">
+      <c r="F24" s="23">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G24" s="7">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.37421428571428578</v>
-      </c>
-      <c r="L24" s="23" t="s">
+      <c r="G24" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="L24" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1285,15 +1342,15 @@
       <c r="H25" s="7">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
@@ -1301,34 +1358,34 @@
         <v>12</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="21">
+      <c r="F26" s="25">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="21">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0.72138857142857149</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="G26" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="24">
         <f>-F26</f>
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="24">
         <f>G26</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N26" s="26">
+        <v>0.62</v>
+      </c>
+      <c r="N26" s="24">
         <f t="shared" ref="N26:N27" si="4">H26</f>
-        <v>0.72138857142857149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
@@ -1336,29 +1393,29 @@
         <v>12</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="21">
+      <c r="F27" s="25">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="21">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H27" s="21">
-        <v>0.10791857142857141</v>
-      </c>
-      <c r="L27" s="26">
+      <c r="G27" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="L27" s="24">
         <f>-F27</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="24">
         <f t="shared" ref="M27" si="5">G27</f>
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="N27" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="N27" s="24">
         <f t="shared" si="4"/>
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -1374,7 +1431,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -1390,11 +1447,11 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
@@ -1407,13 +1464,13 @@
       <c r="H30" s="7">
         <v>0.1</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
@@ -1427,7 +1484,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1496,1459 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E1B4F4-35C9-4881-96DA-67F460775A28}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K16" sqref="K16"/>
+      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.18372714285714289</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.2452914285714286</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7">
+        <f>-0.03</f>
+        <v>-0.03</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.18855571428571433</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <f>5.80566/2</f>
+        <v>2.9028299999999998</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.29913000000000006</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.19097000000000003</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.18855571428571433</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <f>5.80566/2</f>
+        <v>2.9028299999999998</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.18372714285714289</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.51255285714285714</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.16634428571428575</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.53609214285714291</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4.8285714285714293E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.54321428571428576</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <v>5.4538000000000002</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-9.4157142857142894E-3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.42648357142857141</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.36214285714285716</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>7.0371699999999997</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="23">
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="23">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="7">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A26:B29">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B31">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87C508B-9085-4FD6-A2FD-E320D2844D25}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K16" sqref="K16"/>
+      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="22">
+        <f>-F8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M5" s="22">
+        <f>G8</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="N5" s="22">
+        <f>H8</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="22">
+        <f>-F9</f>
+        <v>0.01</v>
+      </c>
+      <c r="M6" s="22">
+        <f>G9</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N6" s="22">
+        <f>H9</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <f>5.80566/2</f>
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.125</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="22">
+        <f>-F5</f>
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="M8" s="22">
+        <f>G5</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" ref="N8:N9" si="0">H5</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="22">
+        <f>-F6</f>
+        <v>-0.04</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" ref="M9" si="1">G6</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <f>5.80566/2</f>
+        <v>2.9028299999999998</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="L11" s="22">
+        <f>-F12</f>
+        <v>0.105</v>
+      </c>
+      <c r="M11" s="22">
+        <f>G12</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="N11" s="22">
+        <f>H12</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="23">
+        <v>-0.105</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="L12" s="22">
+        <f>-F11</f>
+        <v>-0.1</v>
+      </c>
+      <c r="M12" s="22">
+        <f>G11</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="N12" s="22">
+        <f>H11</f>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="23">
+        <v>-0.04</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="L13" s="22">
+        <f>-F13</f>
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" ref="M13:N13" si="2">G13</f>
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="L15" s="22">
+        <f>-F15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" ref="M15:N16" si="3">G15</f>
+        <v>0.73</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="L16" s="22">
+        <f>-F16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23">
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23">
+        <v>1.76</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="23">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.439</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="23">
+        <v>0.14208299999999999</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.185</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23">
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="25">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0.52585999999999999</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="24">
+        <f>-F26</f>
+        <v>-4.9783000000000001E-2</v>
+      </c>
+      <c r="M26" s="24">
+        <f>G26</f>
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" ref="N26:N27" si="4">H26</f>
+        <v>0.52585999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="25">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="L27" s="24">
+        <f>-F27</f>
+        <v>-4.9783000000000001E-2</v>
+      </c>
+      <c r="M27" s="24">
+        <f t="shared" ref="M27" si="5">G27</f>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="23">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1458,33 +2967,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E1B4F4-35C9-4881-96DA-67F460775A28}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43FC85F-A130-4C1B-845D-0B2F11C8EE14}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1504,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +3027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1529,10 +3038,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +3055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1557,19 +3066,19 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.2452914285714286</v>
-      </c>
-      <c r="J5" s="19"/>
+      <c r="F5" s="23">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.188</v>
+      </c>
+      <c r="J5" s="18"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1579,19 +3088,18 @@
         <v>12</v>
       </c>
       <c r="F6" s="7">
-        <f>-0.03</f>
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="7">
-        <v>0.89710000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H6" s="7">
-        <v>0.18855571428571433</v>
-      </c>
-      <c r="J6" s="19"/>
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="18"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1606,10 +3114,10 @@
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1621,18 +3129,18 @@
         <v>12</v>
       </c>
       <c r="F8" s="7">
-        <v>-0.29913000000000006</v>
+        <v>-0.125</v>
       </c>
       <c r="G8" s="7">
-        <v>0.44059999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H8" s="7">
-        <v>0.19097000000000003</v>
-      </c>
-      <c r="J8" s="19"/>
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="18"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1642,19 +3150,18 @@
         <v>12</v>
       </c>
       <c r="F9" s="7">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="G9" s="7">
-        <v>0.89710000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H9" s="7">
-        <v>0.18855571428571433</v>
-      </c>
-      <c r="J9" s="19"/>
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="18"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1672,7 +3179,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1683,19 +3190,19 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7">
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.51255285714285714</v>
-      </c>
-      <c r="J11" s="19"/>
+      <c r="F11" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="J11" s="18"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -1704,19 +3211,19 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.53609214285714291</v>
-      </c>
-      <c r="J12" s="19"/>
+      <c r="F12" s="23">
+        <v>-0.105</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="J12" s="18"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1725,19 +3232,19 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7">
-        <v>4.8285714285714293E-2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.54321428571428576</v>
-      </c>
-      <c r="J13" s="19"/>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="J13" s="18"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1746,15 +3253,15 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
         <v>5.4538000000000002</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1765,19 +3272,19 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7">
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.42648357142857141</v>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0.33</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1786,19 +3293,19 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="23">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.36214285714285716</v>
+      <c r="G16" s="23">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0.33</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1807,15 +3314,15 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23">
         <v>7.0371699999999997</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1824,15 +3331,15 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
         <v>0</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1841,15 +3348,15 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23">
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -1861,15 +3368,15 @@
       <c r="E20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23">
         <v>0.15</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
@@ -1881,15 +3388,15 @@
       <c r="E21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23">
         <v>0.05</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -1899,39 +3406,39 @@
         <v>14</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23">
         <v>1.76</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0.52560000000000007</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0.37421428571428578</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="F23" s="23">
+        <v>-0.13</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0.185</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1940,17 +3447,17 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="7">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.37421428571428578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="23">
+        <v>-0.13</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1959,17 +3466,17 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23">
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
@@ -1977,22 +3484,23 @@
         <v>12</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="21">
-        <v>2.6557142857142899E-3</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0.72138857142857149</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="F26" s="23">
+        <f>-0.01387-0.04</f>
+        <v>-5.3870000000000001E-2</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0.49195</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0.52285999999999999</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
@@ -2000,17 +3508,18 @@
         <v>12</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="21">
-        <v>-5.5166428571428602E-2</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H27" s="21">
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="23">
+        <f>-0.013587-0.04</f>
+        <v>-5.3587000000000003E-2</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -2019,13 +3528,13 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23">
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -2034,17 +3543,17 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23">
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
@@ -2052,18 +3561,18 @@
         <v>12</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="7">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="23">
         <v>0.1</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
@@ -2071,13 +3580,13 @@
         <v>12</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="7">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="23">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -2089,12 +3598,12 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>

--- a/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\SpLA_S2LAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\SpLA_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E0C17-C6FA-4D80-8E0C-D19FEF0B41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBB2FC2-D72A-446D-AB80-D51EABE8E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="60" windowWidth="16905" windowHeight="14295" tabRatio="959" activeTab="3" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
+    <workbookView xWindow="13335" yWindow="2265" windowWidth="13515" windowHeight="12765" tabRatio="959" firstSheet="1" activeTab="3" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="54">
   <si>
     <t>Units</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>SplitLowerArmShockFront_Sedan_Hamba_r</t>
+  </si>
+  <si>
+    <t>LowerArmF to Subframe</t>
+  </si>
+  <si>
+    <t>Rigid_UJ</t>
+  </si>
+  <si>
+    <t>LowerArmR to Subframe</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -297,9 +306,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -310,7 +318,7 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -319,39 +327,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -436,9 +425,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,7 +465,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -582,7 +571,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,19 +724,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -782,11 +771,9 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -796,31 +783,29 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -835,24 +820,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <f>-F8</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <f>G8</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <f>H8</f>
         <v>0.2452914285714286</v>
       </c>
@@ -866,24 +851,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <f>-F9</f>
         <v>-0.03</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <f>G9</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <f>H9</f>
         <v>0.18855571428571433</v>
       </c>
@@ -897,9 +882,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
@@ -915,24 +900,24 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <f>-F5</f>
         <v>-0.29913000000000006</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <f>G5</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.19097000000000003</v>
       </c>
@@ -946,25 +931,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.03</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <f>-F6</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <f t="shared" ref="M9" si="1">G6</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>0.18855571428571433</v>
       </c>
@@ -978,14 +962,13 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -998,25 +981,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <f>-F12</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="20">
         <f>G12</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <f>H12</f>
         <v>0.51255285714285714</v>
       </c>
@@ -1030,25 +1012,24 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <f>-F11</f>
         <v>-0.16634428571428575</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="20">
         <f>G11</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <f>H11</f>
         <v>0.53609214285714291</v>
       </c>
@@ -1062,25 +1043,24 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>-4.8285714285714293E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="20">
         <f>-F13</f>
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="20">
         <f t="shared" ref="M13:N13" si="2">G13</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <f t="shared" si="2"/>
         <v>0.54321428571428576</v>
       </c>
@@ -1094,14 +1074,13 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1114,25 +1093,24 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <f>-F15</f>
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="20">
         <f t="shared" ref="M15:N16" si="3">G15</f>
         <v>0.89449999999999996</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <f t="shared" si="3"/>
         <v>0.42648357142857141</v>
       </c>
@@ -1146,25 +1124,24 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="20">
         <f>-F16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="20">
         <f t="shared" si="3"/>
         <v>0.99209999999999998</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <f t="shared" si="3"/>
         <v>0.36214285714285716</v>
       </c>
@@ -1178,14 +1155,13 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1196,14 +1172,13 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1214,10 +1189,9 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1227,19 +1201,17 @@
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0.15</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1247,19 +1219,17 @@
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0.05</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1267,40 +1237,36 @@
         <v>29</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>1.76</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="23">
+      <c r="F23" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="6">
         <v>0.65</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="6">
         <v>0.24</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1313,17 +1279,16 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="23">
+      <c r="F24" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="6">
         <v>0.91</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="6">
         <v>0.23</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1336,13 +1301,12 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1350,67 +1314,65 @@
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="25">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="22">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="6">
         <v>0.62</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="6">
         <v>0.65</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="21">
         <f>-F26</f>
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="21">
         <f>G26</f>
         <v>0.62</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="21">
         <f t="shared" ref="N26:N27" si="4">H26</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="25">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="22">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="6">
         <v>0.85</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="6">
         <v>0.19</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="21">
         <f>-F27</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="21">
         <f t="shared" ref="M27" si="5">G27</f>
         <v>0.85</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="21">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
@@ -1424,10 +1386,9 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -1440,10 +1401,9 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
@@ -1451,36 +1411,34 @@
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="7">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6">
         <v>0.1</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="7">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6">
         <v>-0.15</v>
       </c>
     </row>
@@ -1488,26 +1446,58 @@
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="15" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1520,19 +1510,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -1541,7 +1531,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1561,49 +1551,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1614,19 +1601,18 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1635,20 +1621,19 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1657,16 +1642,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1677,19 +1661,18 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.29913000000000006</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1698,20 +1681,19 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1720,16 +1702,14 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1740,19 +1720,18 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -1761,19 +1740,18 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>-0.16634428571428575</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1782,19 +1760,18 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1803,15 +1780,14 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>5.4538000000000002</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1822,19 +1798,17 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.42648357142857141</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1843,19 +1817,17 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>0.36214285714285716</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1864,15 +1836,13 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>7.0371699999999997</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1881,15 +1851,13 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1898,97 +1866,88 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0.15</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0.05</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>1.76</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="6">
         <v>0.13</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="6">
         <v>0.65</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="6">
         <v>0.24</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1997,17 +1956,17 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="6">
         <v>0.13</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="6">
         <v>0.91</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="6">
         <v>0.23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -2016,58 +1975,56 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="23">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="6">
         <v>0.62</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="6">
         <v>0.65</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="23">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="6">
         <v>0.85</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="6">
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -2076,13 +2033,13 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -2091,88 +2048,108 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="7">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6">
         <v>0.1</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="7">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B29">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B31">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A26">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A32:A34">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2185,19 +2162,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15:H31"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -2232,11 +2209,9 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2246,31 +2221,29 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2285,24 +2258,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="6">
         <v>0.15</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <f>-F8</f>
         <v>0.125</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <f>G8</f>
         <v>0.30599999999999999</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <f>H8</f>
         <v>0.15</v>
       </c>
@@ -2316,24 +2289,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.04</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.15</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <f>-F9</f>
         <v>0.01</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <f>G9</f>
         <v>0.76600000000000001</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <f>H9</f>
         <v>0.15</v>
       </c>
@@ -2347,9 +2320,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
@@ -2365,24 +2338,24 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.125</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.15</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <f>-F5</f>
         <v>-0.22500000000000001</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <f>G5</f>
         <v>0.30599999999999999</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.15</v>
       </c>
@@ -2396,25 +2369,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>-0.01</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.15</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <f>-F6</f>
         <v>-0.04</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <f t="shared" ref="M9" si="1">G6</f>
         <v>0.76600000000000001</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -2428,14 +2400,13 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2448,25 +2419,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="23">
+      <c r="F11" s="6">
         <v>0.1</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="6">
         <v>0.43</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <f>-F12</f>
         <v>0.105</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="20">
         <f>G12</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <f>H12</f>
         <v>0.41</v>
       </c>
@@ -2480,25 +2450,24 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="23">
+      <c r="F12" s="6">
         <v>-0.105</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="6">
         <v>0.41</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <f>-F11</f>
         <v>-0.1</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="20">
         <f>G11</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <f>H11</f>
         <v>0.43</v>
       </c>
@@ -2512,25 +2481,24 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="23">
+      <c r="F13" s="6">
         <v>-0.04</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="6">
         <v>0.68720000000000003</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="6">
         <v>0.45</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="20">
         <f>-F13</f>
         <v>0.04</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="20">
         <f t="shared" ref="M13:N13" si="2">G13</f>
         <v>0.68720000000000003</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -2544,14 +2512,13 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2564,25 +2531,24 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="23">
+      <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="6">
         <v>0.73</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="6">
         <v>0.33</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <f>-F15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="20">
         <f t="shared" ref="M15:N16" si="3">G15</f>
         <v>0.73</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
@@ -2596,25 +2562,24 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="23">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="6">
         <v>0.33</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="20">
         <f>-F16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="20">
         <f t="shared" si="3"/>
         <v>0.78749999999999998</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
@@ -2628,14 +2593,13 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -2646,14 +2610,13 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2664,10 +2627,9 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2677,19 +2639,17 @@
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0.15</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -2697,19 +2657,17 @@
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0.05</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -2717,40 +2675,36 @@
         <v>29</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>1.76</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="23">
+      <c r="F23" s="6">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="6">
         <v>0.439</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2763,17 +2717,16 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="23">
+      <c r="F24" s="6">
         <v>0.14208299999999999</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="6">
         <v>0.78900000000000003</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="6">
         <v>0.185</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2786,13 +2739,12 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2800,69 +2752,67 @@
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="25">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="22">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="22">
         <v>0.49198500000000001</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <v>0.52585999999999999</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="21">
         <f>-F26</f>
         <v>-4.9783000000000001E-2</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="21">
         <f>G26</f>
         <v>0.49198500000000001</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="21">
         <f t="shared" ref="N26:N27" si="4">H26</f>
         <v>0.52585999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="25">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="22">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="22">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="22">
         <v>0.15</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="21">
         <f>-F27</f>
         <v>-4.9783000000000001E-2</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="21">
         <f t="shared" ref="M27" si="5">G27</f>
         <v>0.71599999999999997</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="21">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -2876,10 +2826,9 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -2892,10 +2841,9 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
@@ -2903,36 +2851,34 @@
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="23">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6">
         <v>0.1</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="23">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6">
         <v>-0.1</v>
       </c>
     </row>
@@ -2940,26 +2886,58 @@
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="15" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2972,19 +2950,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -2993,7 +2971,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3013,49 +2991,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3066,19 +3041,18 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="6">
         <v>0.188</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -3087,19 +3061,18 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.02</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.15</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -3108,16 +3081,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3128,19 +3100,18 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.125</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.15</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -3149,19 +3120,18 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>-0.02</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.15</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -3170,16 +3140,14 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -3190,19 +3158,18 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="6">
         <v>0.1</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="6">
         <v>0.42</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -3211,19 +3178,18 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="6">
         <v>-0.105</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="6">
         <v>0.42</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -3232,19 +3198,18 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="6">
         <v>0.45</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -3253,15 +3218,14 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>5.4538000000000002</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -3272,19 +3236,17 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="6">
         <v>0.74</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="6">
         <v>0.33</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -3293,19 +3255,17 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="6">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="6">
         <v>0.33</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -3314,15 +3274,13 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>7.0371699999999997</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -3331,15 +3289,13 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -3348,97 +3304,88 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0.15</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0.05</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>1.76</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="6">
         <v>-0.13</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="6">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="6">
         <v>0.185</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -3447,17 +3394,17 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="6">
         <v>-0.13</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="6">
         <v>0.75900000000000001</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="6">
         <v>0.185</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -3466,60 +3413,58 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="23">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="6">
         <v>0.49195</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="6">
         <v>0.52285999999999999</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="23">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="6">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -3528,13 +3473,13 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -3543,88 +3488,108 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="23">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6">
         <v>0.1</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="23">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\SpLA_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBB2FC2-D72A-446D-AB80-D51EABE8E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECC74A-E1D0-4A7E-B1F7-2F47D9B5B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="2265" windowWidth="13515" windowHeight="12765" tabRatio="959" firstSheet="1" activeTab="3" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
+    <workbookView xWindow="1050" yWindow="0" windowWidth="25575" windowHeight="15585" tabRatio="959" firstSheet="1" activeTab="3" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="57">
   <si>
     <t>Units</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>LowerArmR to Subframe</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
   </si>
 </sst>
 </file>
@@ -293,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -336,11 +345,57 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -413,6 +468,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1492,12 +1552,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1512,22 +1572,22 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="K16" sqref="K16"/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1934,17 +1994,20 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6">
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="24">
         <v>0.13</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="24">
         <v>0.65</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="24">
         <v>0.24</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1992,17 +2055,20 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="26">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="26">
         <v>0.62</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="26">
         <v>0.65</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,14 +2080,20 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="6">
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="26">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="26">
         <v>0.85</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="26">
         <v>0.19</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2065,13 +2137,16 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="6">
+      <c r="H30" s="25">
         <v>0.1</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2083,10 +2158,16 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="6">
+      <c r="H31" s="25">
         <v>-0.15</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2139,17 +2220,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2162,28 +2253,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="K16" sqref="K16"/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2203,7 +2294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2215,7 +2306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2226,11 +2317,8 @@
       <c r="H3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2243,11 +2331,8 @@
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2267,20 +2352,8 @@
       <c r="H5" s="6">
         <v>0.15</v>
       </c>
-      <c r="L5" s="20">
-        <f>-F8</f>
-        <v>0.125</v>
-      </c>
-      <c r="M5" s="20">
-        <f>G8</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="N5" s="20">
-        <f>H8</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2298,20 +2371,8 @@
       <c r="H6" s="6">
         <v>0.15</v>
       </c>
-      <c r="L6" s="20">
-        <f>-F9</f>
-        <v>0.01</v>
-      </c>
-      <c r="M6" s="20">
-        <f>G9</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="N6" s="20">
-        <f>H9</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2327,7 +2388,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2347,20 +2408,8 @@
       <c r="H8" s="6">
         <v>0.15</v>
       </c>
-      <c r="L8" s="20">
-        <f>-F5</f>
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M8" s="20">
-        <f>G5</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" ref="N8:N9" si="0">H5</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2378,20 +2427,8 @@
       <c r="H9" s="6">
         <v>0.15</v>
       </c>
-      <c r="L9" s="20">
-        <f>-F6</f>
-        <v>-0.04</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" ref="M9" si="1">G6</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -2406,9 +2443,8 @@
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2428,20 +2464,8 @@
       <c r="H11" s="6">
         <v>0.43</v>
       </c>
-      <c r="L11" s="20">
-        <f>-F12</f>
-        <v>0.105</v>
-      </c>
-      <c r="M11" s="20">
-        <f>G12</f>
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N11" s="20">
-        <f>H12</f>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -2459,20 +2483,8 @@
       <c r="H12" s="6">
         <v>0.41</v>
       </c>
-      <c r="L12" s="20">
-        <f>-F11</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M12" s="20">
-        <f>G11</f>
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N12" s="20">
-        <f>H11</f>
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -2490,20 +2502,8 @@
       <c r="H13" s="6">
         <v>0.45</v>
       </c>
-      <c r="L13" s="20">
-        <f>-F13</f>
-        <v>0.04</v>
-      </c>
-      <c r="M13" s="20">
-        <f t="shared" ref="M13:N13" si="2">G13</f>
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -2517,10 +2517,8 @@
       <c r="H14" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2540,20 +2538,8 @@
       <c r="H15" s="6">
         <v>0.33</v>
       </c>
-      <c r="L15" s="20">
-        <f>-F15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" ref="M15:N16" si="3">G15</f>
-        <v>0.73</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="3"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -2571,20 +2557,8 @@
       <c r="H16" s="6">
         <v>0.33</v>
       </c>
-      <c r="L16" s="20">
-        <f>-F16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="3"/>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="3"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -2598,10 +2572,8 @@
       <c r="H17" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -2615,10 +2587,8 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -2633,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -2651,7 +2621,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
@@ -2669,7 +2639,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -2684,7 +2654,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -2695,20 +2665,23 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6">
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="24">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="24">
         <v>0.439</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="24">
         <v>0.20499999999999999</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -2726,11 +2699,8 @@
       <c r="H24" s="6">
         <v>0.185</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -2744,11 +2714,8 @@
       <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L25" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -2759,33 +2726,24 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="22">
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="27">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="27">
         <v>0.49198500000000001</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="27">
         <v>0.52585999999999999</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="21">
-        <f>-F26</f>
-        <v>-4.9783000000000001E-2</v>
-      </c>
-      <c r="M26" s="21">
-        <f>G26</f>
-        <v>0.49198500000000001</v>
-      </c>
-      <c r="N26" s="21">
-        <f t="shared" ref="N26:N27" si="4">H26</f>
-        <v>0.52585999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="13" t="s">
         <v>34</v>
@@ -2794,30 +2752,24 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="22">
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="27">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="27">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="27">
         <v>0.15</v>
       </c>
-      <c r="L27" s="21">
-        <f>-F27</f>
-        <v>-4.9783000000000001E-2</v>
-      </c>
-      <c r="M27" s="21">
-        <f t="shared" ref="M27" si="5">G27</f>
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="N27" s="21">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -2832,7 +2784,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -2847,7 +2799,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -2858,16 +2810,19 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="6">
+      <c r="H30" s="25">
         <v>0.1</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="14" t="s">
         <v>40</v>
@@ -2876,13 +2831,19 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="6">
+      <c r="H31" s="25">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -2932,12 +2893,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2954,20 +2925,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="K16" sqref="K16"/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="J10" sqref="J10"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3372,17 +3343,20 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6">
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="24">
         <v>-0.13</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="24">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="24">
         <v>0.185</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3430,18 +3404,21 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="26">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="26">
         <v>0.49195</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="26">
         <v>0.52285999999999999</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3453,15 +3430,21 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="6">
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="26">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="26">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="26">
         <v>0.15</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3505,13 +3488,16 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="6">
+      <c r="H30" s="25">
         <v>0.1</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3523,10 +3509,16 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="6">
+      <c r="H31" s="25">
         <v>-0.1</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3579,17 +3571,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAF/sm_car_data_Linkage_SpLA_S2LAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\SpLA_S2LAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Linkage\SpLA_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECC74A-E1D0-4A7E-B1F7-2F47D9B5B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAD97AF-0B36-4C3E-8516-E68E57D88F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="0" windowWidth="25575" windowHeight="15585" tabRatio="959" firstSheet="1" activeTab="3" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="959" activeTab="2" xr2:uid="{1E2D3CBA-34F3-4EA5-AA57-BF5B7BD30388}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="59">
   <si>
     <t>Units</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>sARB</t>
+  </si>
+  <si>
+    <t>Must be same as AntiRollBar.sSuspension for attachment to LowerArm</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -302,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -349,6 +361,8 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,14 +798,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K16" sqref="K16"/>
       <selection pane="topRight" activeCell="K16" sqref="K16"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +819,7 @@
     <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -825,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -837,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -852,7 +866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -869,7 +883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -902,7 +916,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -933,7 +947,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -949,7 +963,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -982,7 +996,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1013,229 +1027,240 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="28">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L12" s="20">
+        <f>-F13</f>
+        <v>0.18372714285714289</v>
+      </c>
+      <c r="M12" s="20">
+        <f>G13</f>
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="N12" s="20">
+        <f>H13</f>
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-0.18372714285714289</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.51255285714285714</v>
+      </c>
+      <c r="L13" s="20">
         <f>-F12</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M11" s="20">
+        <v>-0.16634428571428575</v>
+      </c>
+      <c r="M13" s="20">
         <f>G12</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N13" s="20">
         <f>H12</f>
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-0.18372714285714289</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.51255285714285714</v>
-      </c>
-      <c r="L12" s="20">
-        <f>-F11</f>
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="M12" s="20">
-        <f>G11</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N12" s="20">
-        <f>H11</f>
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
         <v>-4.8285714285714293E-2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L13" s="20">
-        <f>-F13</f>
+      <c r="L14" s="20">
+        <f>-F14</f>
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="M13" s="20">
-        <f t="shared" ref="M13:N13" si="2">G13</f>
+      <c r="M14" s="20">
+        <f t="shared" ref="M14:N14" si="2">G14</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N14" s="20">
         <f t="shared" si="2"/>
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <v>5.2778799999999997</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L15" s="20">
-        <f>-F15</f>
+      <c r="L16" s="20">
+        <f>-F16</f>
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="M15" s="20">
-        <f t="shared" ref="M15:N16" si="3">G15</f>
+      <c r="M16" s="20">
+        <f t="shared" ref="M16:N17" si="3">G16</f>
         <v>0.89449999999999996</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N16" s="20">
         <f t="shared" si="3"/>
         <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.36214285714285716</v>
-      </c>
-      <c r="L16" s="20">
-        <f>-F16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="3"/>
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="3"/>
-        <v>0.36214285714285716</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H17" s="6">
-        <v>5.2778799999999997</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+        <v>0.36214285714285716</v>
+      </c>
+      <c r="L17" s="20">
+        <f>-F17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="3"/>
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" si="3"/>
+        <v>0.36214285714285716</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -1243,7 +1268,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
@@ -1254,86 +1279,81 @@
       <c r="H19" s="6">
         <v>0</v>
       </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>11</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.65</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>45</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
@@ -1343,119 +1363,126 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="G24" s="6">
-        <v>0.91</v>
+        <v>0.65</v>
       </c>
       <c r="H24" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>46</v>
+        <v>0.24</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.91</v>
+      </c>
       <c r="H25" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="22">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.62</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="21">
-        <f>-F26</f>
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="M26" s="21">
-        <f>G26</f>
-        <v>0.62</v>
-      </c>
-      <c r="N26" s="21">
-        <f t="shared" ref="N26:N27" si="4">H26</f>
-        <v>0.65</v>
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B27" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="22">
-        <v>5.5166428571428582E-2</v>
+        <v>-2.6557142857142869E-3</v>
       </c>
       <c r="G27" s="6">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H27" s="6">
-        <v>0.19</v>
+        <v>0.65</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="L27" s="21">
         <f>-F27</f>
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="M27" s="21">
+        <f>G27</f>
+        <v>0.62</v>
+      </c>
+      <c r="N27" s="21">
+        <f t="shared" ref="N27:N28" si="4">H27</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="22">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="L28" s="21">
+        <f>-F28</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M27" s="21">
-        <f t="shared" ref="M27" si="5">G27</f>
+      <c r="M28" s="21">
+        <f t="shared" ref="M28" si="5">G28</f>
         <v>0.85</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N28" s="21">
         <f t="shared" si="4"/>
         <v>0.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -1464,33 +1491,30 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>38</v>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>39</v>
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="B31" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -1499,44 +1523,46 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <v>-0.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -1550,13 +1576,29 @@
         <v>52</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B31">
+  <conditionalFormatting sqref="A27:B32">
     <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1570,14 +1612,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1633,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1611,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1636,7 +1678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1714,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1693,7 +1735,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1710,7 +1752,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1732,7 +1774,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1753,174 +1795,187 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="28">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.51255285714285714</v>
-      </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.16634428571428575</v>
+        <v>0.18372714285714289</v>
       </c>
       <c r="G12" s="6">
         <v>0.63060000000000005</v>
       </c>
       <c r="H12" s="6">
-        <v>0.53609214285714291</v>
+        <v>0.51255285714285714</v>
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>4.8285714285714293E-2</v>
+        <v>-0.16634428571428575</v>
       </c>
       <c r="G13" s="6">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H13" s="6">
-        <v>0.54321428571428576</v>
+        <v>0.53609214285714291</v>
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4.8285714285714293E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.89280000000000004</v>
+      </c>
       <c r="H14" s="6">
-        <v>5.4538000000000002</v>
+        <v>0.54321428571428576</v>
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.89449999999999996</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+        <v>5.4538000000000002</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>-9.4157142857142894E-3</v>
       </c>
       <c r="G16" s="6">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H16" s="6">
-        <v>0.36214285714285716</v>
+        <v>0.42648357142857141</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H17" s="6">
-        <v>7.0371699999999997</v>
+        <v>0.36214285714285716</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>7.0371699999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
@@ -1935,146 +1990,136 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>11</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.65</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0.24</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6">
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="24">
         <v>0.13</v>
       </c>
-      <c r="G24" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.23</v>
+      <c r="G24" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="H24" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.91</v>
+      </c>
       <c r="H25" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>32</v>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="26">
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0.62</v>
-      </c>
-      <c r="H26" s="26">
-        <v>0.65</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B27" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
@@ -2084,13 +2129,13 @@
         <v>55</v>
       </c>
       <c r="F27" s="26">
-        <v>-5.5166428571428582E-2</v>
+        <v>2.6557142857142869E-3</v>
       </c>
       <c r="G27" s="26">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H27" s="26">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>55</v>
@@ -2098,23 +2143,33 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
+      <c r="B28" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="26">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -2123,36 +2178,30 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>38</v>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="B31" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -2164,47 +2213,52 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="25">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="15" t="s">
-        <v>42</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="25">
+        <v>-0.15</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -2218,29 +2272,45 @@
         <v>52</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A27">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B31">
+  <conditionalFormatting sqref="A27:B32">
     <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J31">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J31:J32">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2253,14 +2323,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2344,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2294,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2306,7 +2376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2353,7 +2423,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2372,7 +2442,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2388,7 +2458,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2479,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2428,121 +2498,130 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="28">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="6">
         <v>0.45100000000000001</v>
       </c>
       <c r="H12" s="6">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.04</v>
+        <v>-0.105</v>
       </c>
       <c r="G13" s="6">
-        <v>0.68720000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H13" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-0.04</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.68720000000000003</v>
+      </c>
       <c r="H14" s="6">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.73</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
@@ -2551,8 +2630,8 @@
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="23">
-        <v>0.78749999999999998</v>
+      <c r="G16" s="6">
+        <v>0.73</v>
       </c>
       <c r="H16" s="6">
         <v>0.33</v>
@@ -2561,37 +2640,41 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.78749999999999998</v>
+      </c>
       <c r="H17" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
@@ -2606,147 +2689,136 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>11</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="24">
-        <v>0.13708300000000001</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.439</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6">
-        <v>0.14208299999999999</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.185</v>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0.439</v>
+      </c>
+      <c r="H24" s="24">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.14208299999999999</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.78900000000000003</v>
+      </c>
       <c r="H25" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="27">
-        <f>-0.000217+0.05</f>
-        <v>4.9783000000000001E-2</v>
-      </c>
-      <c r="G26" s="27">
-        <v>0.49198500000000001</v>
-      </c>
-      <c r="H26" s="27">
-        <v>0.52585999999999999</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B27" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
@@ -2760,10 +2832,10 @@
         <v>4.9783000000000001E-2</v>
       </c>
       <c r="G27" s="27">
-        <v>0.71599999999999997</v>
+        <v>0.49198500000000001</v>
       </c>
       <c r="H27" s="27">
-        <v>0.15</v>
+        <v>0.52585999999999999</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>55</v>
@@ -2771,23 +2843,34 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
+      <c r="B28" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="27">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -2796,36 +2879,30 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>38</v>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="B31" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -2837,47 +2914,52 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="25">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="15" t="s">
-        <v>42</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -2891,24 +2973,40 @@
         <v>52</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="A33:A35">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+  <conditionalFormatting sqref="A27:B32">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J31">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="J31:J32">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2921,14 +3019,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J10" sqref="J10"/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,7 +3040,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2962,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2975,7 +3073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2987,7 +3085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3001,7 +3099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3023,7 +3121,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -3043,7 +3141,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -3060,7 +3158,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3180,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -3102,55 +3200,63 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="28">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="6">
         <v>0.45100000000000001</v>
@@ -3160,67 +3266,68 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>-0.105</v>
       </c>
       <c r="G13" s="6">
-        <v>0.70599999999999996</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H13" s="6">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.70599999999999996</v>
+      </c>
       <c r="H14" s="6">
-        <v>5.4538000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.74</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+        <v>5.4538000000000002</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
@@ -3230,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>0.78749999999999998</v>
+        <v>0.74</v>
       </c>
       <c r="H16" s="6">
         <v>0.33</v>
@@ -3239,37 +3346,41 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.78749999999999998</v>
+      </c>
       <c r="H17" s="6">
-        <v>7.0371699999999997</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>7.0371699999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
@@ -3284,188 +3395,188 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>11</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="24">
-        <v>-0.13</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0.185</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6">
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="24">
         <v>-0.13</v>
       </c>
-      <c r="G24" s="6">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="24">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H24" s="24">
         <v>0.185</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-0.13</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.75900000000000001</v>
+      </c>
       <c r="H25" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>32</v>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F27" s="26">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G27" s="26">
         <v>0.49195</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H27" s="26">
         <v>0.52285999999999999</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J27" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="17" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F28" s="26">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G28" s="26">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H28" s="26">
         <v>0.15</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J28" s="13" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -3474,36 +3585,30 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>38</v>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="B31" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -3515,47 +3620,52 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="25">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="15" t="s">
-        <v>42</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -3569,29 +3679,45 @@
         <v>52</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="A27">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="A33:A35">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="A27:B32">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J31">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="J31:J32">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
